--- a/时间捕手/时间捕手数值.xlsx
+++ b/时间捕手/时间捕手数值.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="玩法" sheetId="1" r:id="rId1"/>
-    <sheet name="广告" sheetId="5" r:id="rId2"/>
-    <sheet name="广告旧" sheetId="6" r:id="rId3"/>
-    <sheet name="分享" sheetId="7" r:id="rId4"/>
-    <sheet name="用户数" sheetId="8" r:id="rId5"/>
-    <sheet name="数据参考" sheetId="3" r:id="rId6"/>
-    <sheet name="群交流" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="广告" sheetId="5" r:id="rId3"/>
+    <sheet name="广告旧" sheetId="6" r:id="rId4"/>
+    <sheet name="分享" sheetId="7" r:id="rId5"/>
+    <sheet name="用户数" sheetId="8" r:id="rId6"/>
+    <sheet name="数据参考" sheetId="3" r:id="rId7"/>
+    <sheet name="群交流" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
   <si>
     <t>本局极点值Max &gt; 30</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -699,6 +700,42 @@
   </si>
   <si>
     <t>特殊目标概率 极点值达到S秒才会触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日看视频广告获取慧眼次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每局可视频广告复活次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩了几局后，结算界面刷出Banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩了几局后，游戏中界面刷出Banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩了几局后，排行榜界面刷出Banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微妙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离谱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,10 +743,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -808,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -826,6 +864,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1474,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1889,172 +1928,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2">
-        <v>0.03</v>
-      </c>
-      <c r="C2">
-        <v>0.06</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:5">
+      <c r="A1" s="10">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D1" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="10">
+        <f>B1-$A$1</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <f>C1-$A$1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="D2" s="10">
+        <f>D1-$A$1</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17">
+        <f>B$5/$A6</f>
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:D13" si="0">C$5/$A6</f>
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17">
+        <f t="shared" ref="B7:B13" si="1">B$5/$A7</f>
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="17">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="17">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="C10" s="17">
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="E2">
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C11" s="17">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="C12" s="17">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="0"/>
+        <v>0.1142857142857143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="17">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="0"/>
         <v>0.1</v>
-      </c>
-      <c r="F2">
-        <v>0.2</v>
-      </c>
-      <c r="G2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="12">
-        <f>$B$1/B2</f>
-        <v>333333.33333333337</v>
-      </c>
-      <c r="C3" s="12">
-        <f t="shared" ref="C3:G3" si="0">$B$1/C2</f>
-        <v>166666.66666666669</v>
-      </c>
-      <c r="D3" s="12">
-        <f t="shared" si="0"/>
-        <v>125000</v>
-      </c>
-      <c r="E3" s="12">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="F3" s="12">
-        <f t="shared" si="0"/>
-        <v>50000</v>
-      </c>
-      <c r="G3" s="12">
-        <f t="shared" si="0"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="12">
-        <f>$B$1/B5*1000</f>
-        <v>125000</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7">
-        <f>$B$6/B3</f>
-        <v>0.37499999999999994</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:G7" si="1">$B$6/C3</f>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="12">
-        <f>$B$1/B9*1000</f>
-        <v>1000000</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11">
-        <f>$B$10/B3</f>
-        <v>2.9999999999999996</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:G11" si="2">$B$10/C3</f>
-        <v>5.9999999999999991</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2064,6 +2132,224 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <f>B3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <f>B3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8">
+        <v>0.03</v>
+      </c>
+      <c r="C8">
+        <v>0.06</v>
+      </c>
+      <c r="D8">
+        <v>0.08</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="12">
+        <f>$B$7/B8</f>
+        <v>333333.33333333337</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" ref="C9:G9" si="0">$B$7/C8</f>
+        <v>166666.66666666669</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="12">
+        <f>$B$7/B11*1000</f>
+        <v>125000</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13">
+        <f>$B$12/B9</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:G13" si="1">$B$12/C9</f>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="12">
+        <f>$B$7/B15*1000</f>
+        <v>1000000</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17">
+        <f>$B$16/B9</f>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:G17" si="2">$B$16/C9</f>
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -2187,12 +2473,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2221,7 +2507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH61"/>
   <sheetViews>
@@ -6609,7 +6895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A41:D57"/>
   <sheetViews>
@@ -6717,7 +7003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>

--- a/时间捕手/时间捕手数值.xlsx
+++ b/时间捕手/时间捕手数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="玩法" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="195">
   <si>
     <t>本局极点值Max &gt; 30</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +737,18 @@
   <si>
     <t>离谱</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漏涨满需要秒数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导阶段 慧眼状态下错几次会给附加提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声场的空间感偏小了，像摆在床头那种表。而应该再稍大气些，与上次的相比取中间的感受试试。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -749,7 +761,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +837,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -846,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -865,6 +885,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1511,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1525,12 +1546,12 @@
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1">
+    <row r="2" spans="1:17" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1538,7 +1559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1">
+    <row r="3" spans="1:17" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1546,15 +1567,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1">
+    <row r="4" spans="1:17" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1">
+      <c r="Q4" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1562,7 +1586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -1570,355 +1594,373 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="B18">
-        <f>C17*$C$14</f>
+      <c r="B19">
+        <f>C18*$C$15</f>
         <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <f>B21*$C$14</f>
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <f>B22*$C$14</f>
-        <v>160</v>
+        <f>B22*$C$15</f>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <f>B23*$C$15</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>137</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1">
-      <c r="A27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="3">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3">
-        <v>2.2000000000000002</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1">
       <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1">
+      <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1"/>
-    <row r="32" spans="1:3" s="1" customFormat="1">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:3" s="1" customFormat="1"/>
+    <row r="33" spans="1:2" s="1" customFormat="1">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="1" customFormat="1">
-      <c r="A33" s="15" t="s">
+    <row r="34" spans="1:2" s="1" customFormat="1">
+      <c r="A34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B34" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="1" customFormat="1"/>
-    <row r="35" spans="1:2" s="1" customFormat="1">
-      <c r="A35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="35" spans="1:2" s="1" customFormat="1"/>
     <row r="36" spans="1:2" s="1" customFormat="1">
       <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="1" customFormat="1">
+      <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="1" customFormat="1">
-      <c r="A37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="1" customFormat="1">
       <c r="A38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="1" customFormat="1">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1">
       <c r="A40" s="3" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1">
       <c r="A41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>138</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="1" customFormat="1">
       <c r="A42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="1" customFormat="1">
       <c r="A43" s="3" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1">
       <c r="A44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1">
       <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="1" customFormat="1">
+      <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="1" customFormat="1"/>
     <row r="47" spans="1:2" s="1" customFormat="1"/>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" s="1" customFormat="1">
+      <c r="A48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="1" customFormat="1"/>
+    <row r="50" spans="1:2" s="1" customFormat="1"/>
+    <row r="51" spans="1:2" s="1" customFormat="1"/>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B48">
+      <c r="B52">
         <f>60*10</f>
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B49">
+      <c r="B53">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>30</v>
       </c>
-      <c r="B50">
-        <f>B15</f>
+      <c r="B54">
+        <f>B16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>40</v>
       </c>
-      <c r="B51">
+      <c r="B55">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="1" customFormat="1">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" s="1" customFormat="1">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" s="1" customFormat="1">
-      <c r="A57" s="3"/>
-    </row>
     <row r="58" spans="1:2" s="1" customFormat="1">
-      <c r="A58" s="3"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" s="1" customFormat="1">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" s="1" customFormat="1">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" s="1" customFormat="1">
       <c r="A62" s="3"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="66" s="1" customFormat="1"/>
-    <row r="67" s="1" customFormat="1"/>
-    <row r="68" s="1" customFormat="1"/>
-    <row r="69" s="2" customFormat="1"/>
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="70" spans="1:1" s="1" customFormat="1"/>
+    <row r="71" spans="1:1" s="1" customFormat="1"/>
+    <row r="72" spans="1:1" s="1" customFormat="1"/>
+    <row r="73" spans="1:1" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1930,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -2354,7 +2396,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2374,7 +2416,7 @@
         <v>58</v>
       </c>
       <c r="B2">
-        <f>玩法!B48</f>
+        <f>玩法!B52</f>
         <v>600</v>
       </c>
     </row>
@@ -2470,6 +2512,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7008,7 +7051,7 @@
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/时间捕手/时间捕手数值.xlsx
+++ b/时间捕手/时间捕手数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="玩法" sheetId="1" r:id="rId1"/>
@@ -1534,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1884,7 +1884,7 @@
         <v>192</v>
       </c>
       <c r="B48" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1"/>

--- a/时间捕手/时间捕手数值.xlsx
+++ b/时间捕手/时间捕手数值.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="玩法" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="反馈圈" sheetId="9" r:id="rId2"/>
     <sheet name="广告" sheetId="5" r:id="rId3"/>
     <sheet name="广告旧" sheetId="6" r:id="rId4"/>
     <sheet name="分享" sheetId="7" r:id="rId5"/>
@@ -1534,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/时间捕手/时间捕手数值.xlsx
+++ b/时间捕手/时间捕手数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="玩法" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="195">
-  <si>
-    <t>本局极点值Max &gt; 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="200">
   <si>
     <t>本局极点值Max &gt; 60</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,14 +140,6 @@
   </si>
   <si>
     <t>每人每天游戏失败次数预期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局极点值Max &lt;= 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本局极点值Max &gt; 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -749,6 +737,35 @@
   <si>
     <t>声场的空间感偏小了，像摆在床头那种表。而应该再稍大气些，与上次的相比取中间的感受试试。</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始当前时间值秒数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局极点值Max &lt;= 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局极点值Max &gt; 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本局极点值Max &gt; 90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K = 分享新增 / (导量新增 + DOU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K = 分享新增 / ((新增 - 分享新增) + (活跃 - 新增))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K = 分享新增 / (活跃 - 分享新增) </t>
+  </si>
+  <si>
+    <t>K+次留+arup =0.6  arup=0.05以上</t>
   </si>
 </sst>
 </file>
@@ -761,7 +778,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,6 +862,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -866,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -886,6 +911,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -909,7 +935,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5567118" cy="3209925"/>
@@ -942,7 +968,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7610475" cy="790575"/>
@@ -992,7 +1018,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12590476" cy="2161905"/>
@@ -1025,7 +1051,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11696700" cy="809625"/>
@@ -1075,7 +1101,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12115800" cy="1266825"/>
@@ -1125,7 +1151,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12847619" cy="2304762"/>
@@ -1158,7 +1184,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="12714286" cy="5600000"/>
@@ -1191,13 +1217,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1534,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1548,47 +1574,47 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1596,7 +1622,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1604,7 +1630,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1612,12 +1638,12 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" t="s">
-        <v>31</v>
+      <c r="A12" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1627,8 +1653,8 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" t="s">
-        <v>32</v>
+      <c r="A13" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1638,7 +1664,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" t="s">
+      <c r="A14" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B14">
@@ -1649,8 +1675,8 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" t="s">
-        <v>1</v>
+      <c r="A15" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1661,7 +1687,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1669,7 +1695,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1680,7 +1706,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <f>C18*$C$15</f>
@@ -1689,7 +1715,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1697,7 +1723,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -1705,7 +1731,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -1713,7 +1739,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <f>B22*$C$15</f>
@@ -1722,7 +1748,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <f>B23*$C$15</f>
@@ -1731,7 +1757,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1742,15 +1768,15 @@
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="3">
-        <v>30</v>
+        <v>179</v>
+      </c>
+      <c r="B28" s="19">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1">
       <c r="A29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="3">
         <v>14</v>
@@ -1758,7 +1784,7 @@
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3">
         <v>2.2000000000000002</v>
@@ -1766,7 +1792,7 @@
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1">
       <c r="A31" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="3">
         <v>80</v>
@@ -1775,7 +1801,7 @@
     <row r="32" spans="1:3" s="1" customFormat="1"/>
     <row r="33" spans="1:2" s="1" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -1783,7 +1809,7 @@
     </row>
     <row r="34" spans="1:2" s="1" customFormat="1">
       <c r="A34" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="16">
         <v>2</v>
@@ -1792,107 +1818,114 @@
     <row r="35" spans="1:2" s="1" customFormat="1"/>
     <row r="36" spans="1:2" s="1" customFormat="1">
       <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="1" customFormat="1">
       <c r="A38" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="1" customFormat="1">
       <c r="A39" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1">
       <c r="A41" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="1" customFormat="1">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="1" customFormat="1">
       <c r="A43" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1">
       <c r="A44" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1">
       <c r="A45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="1" customFormat="1"/>
     <row r="48" spans="1:2" s="1" customFormat="1">
       <c r="A48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="1" customFormat="1">
+      <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="1" customFormat="1"/>
+      <c r="B49" s="1">
+        <v>30</v>
+      </c>
+    </row>
     <row r="50" spans="1:2" s="1" customFormat="1"/>
     <row r="51" spans="1:2" s="1" customFormat="1"/>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <f>60*10</f>
@@ -1901,7 +1934,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -1909,7 +1942,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <f>B16</f>
@@ -1918,7 +1951,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>30</v>
@@ -1972,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2008,16 +2041,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" t="s">
         <v>188</v>
-      </c>
-      <c r="C4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2178,7 +2211,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2191,7 +2224,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -2199,7 +2232,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2207,7 +2240,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2215,7 +2248,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B4">
         <f>B3</f>
@@ -2224,7 +2257,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B5">
         <f>B3</f>
@@ -2233,7 +2266,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -2241,7 +2274,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B8">
         <v>0.03</v>
@@ -2264,7 +2297,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B9" s="12">
         <f>$B$7/B8</f>
@@ -2293,7 +2326,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <v>80</v>
@@ -2301,7 +2334,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B12" s="12">
         <f>$B$7/B11*1000</f>
@@ -2311,7 +2344,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B13">
         <f>$B$12/B9</f>
@@ -2340,7 +2373,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -2348,7 +2381,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B16" s="12">
         <f>$B$7/B15*1000</f>
@@ -2358,7 +2391,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17">
         <f>$B$16/B9</f>
@@ -2407,13 +2440,13 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <f>玩法!B52</f>
@@ -2422,19 +2455,19 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5">
         <v>0.03</v>
@@ -2442,7 +2475,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -2450,7 +2483,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2">
         <v>10</v>
@@ -2458,17 +2491,17 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5">
         <v>0.03</v>
@@ -2476,7 +2509,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>80</v>
@@ -2484,7 +2517,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>80</v>
@@ -2495,7 +2528,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -2503,10 +2536,10 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2531,17 +2564,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2568,106 +2601,106 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>152</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>153</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>154</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>155</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>156</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>157</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>158</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>159</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>160</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>161</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>162</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>164</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>165</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>166</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>167</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>168</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>169</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>170</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>171</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>173</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>174</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>175</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>176</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>177</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>178</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -2686,7 +2719,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" s="10">
         <v>0.3</v>
@@ -2737,7 +2770,7 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B5" s="13">
         <f t="shared" si="1"/>
@@ -2889,7 +2922,7 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B9" s="13">
         <f t="shared" si="1"/>
@@ -5005,7 +5038,7 @@
     </row>
     <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B32" s="13">
         <f t="shared" si="4"/>
@@ -6940,103 +6973,123 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A41:D57"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="41" spans="1:4" ht="14.25">
-      <c r="A41" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="14.25">
+      <c r="A48" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75">
+      <c r="A50" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75">
-      <c r="A42" s="7" t="s">
+    <row r="51" spans="1:4" ht="16.5">
+      <c r="A51" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75">
-      <c r="A43" s="7" t="s">
+    <row r="52" spans="1:4" ht="14.25">
+      <c r="A52" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="7" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5">
-      <c r="A44" s="8" t="s">
+    <row r="54" spans="1:4" ht="16.5">
+      <c r="A54" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.25">
-      <c r="A45" s="6" t="s">
+      <c r="B54" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+    <row r="55" spans="1:4" ht="15.75">
+      <c r="A55" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5">
-      <c r="A47" s="8" t="s">
+    <row r="56" spans="1:4" ht="15.75">
+      <c r="A56" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="8" t="s">
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75">
-      <c r="A48" s="7" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75">
-      <c r="A49" s="7" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="15">
-      <c r="A55" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -7061,237 +7114,237 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/时间捕手/时间捕手数值.xlsx
+++ b/时间捕手/时间捕手数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="玩法" sheetId="1" r:id="rId1"/>
@@ -930,6 +930,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>351339</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3771900"/>
+          <a:ext cx="8685714" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1560,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2210,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2421,6 +2464,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/时间捕手/时间捕手数值.xlsx
+++ b/时间捕手/时间捕手数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="玩法" sheetId="1" r:id="rId1"/>
@@ -935,13 +935,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>351339</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>142471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -959,7 +959,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3771900"/>
+          <a:off x="0" y="3429000"/>
           <a:ext cx="8685714" cy="3228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1603,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2253,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
